--- a/CS2/Copy of Awsome_Bakery_Data__excel_.xlsx
+++ b/CS2/Copy of Awsome_Bakery_Data__excel_.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\stat 580\stat 580 su 17\CS2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\580\CS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5940" windowHeight="5415" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C5 Cookies.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Transformed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="8">
   <si>
     <t>Taste</t>
   </si>
@@ -45,6 +46,9 @@
   </si>
   <si>
     <t>regular</t>
+  </si>
+  <si>
+    <t>AvgTaste</t>
   </si>
 </sst>
 </file>
@@ -423,7 +427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2339,4 +2345,438 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>AVERAGE('C5 Cookies.csv'!A2:A6)</f>
+        <v>6.8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>AVERAGE('C5 Cookies.csv'!A7:A11)</f>
+        <v>6.2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>AVERAGE('C5 Cookies.csv'!A12:A16)</f>
+        <v>5.8</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>AVERAGE('C5 Cookies.csv'!A17:A21)</f>
+        <v>5.2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>AVERAGE('C5 Cookies.csv'!A22:A26)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>AVERAGE('C5 Cookies.csv'!A27:A31)</f>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>AVERAGE('C5 Cookies.csv'!A32:A36)</f>
+        <v>6.2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>AVERAGE('C5 Cookies.csv'!A37:A41)</f>
+        <v>6.8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>AVERAGE('C5 Cookies.csv'!A42:A46)</f>
+        <v>6.2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>AVERAGE('C5 Cookies.csv'!A47:A51)</f>
+        <v>7.4</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>AVERAGE('C5 Cookies.csv'!A52:A56)</f>
+        <v>6.4</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>AVERAGE('C5 Cookies.csv'!A57:A61)</f>
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>AVERAGE('C5 Cookies.csv'!A62:A66)</f>
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>AVERAGE('C5 Cookies.csv'!A67:A71)</f>
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>AVERAGE('C5 Cookies.csv'!A72:A76)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>AVERAGE('C5 Cookies.csv'!A77:A81)</f>
+        <v>6.4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>AVERAGE('C5 Cookies.csv'!A82:A86)</f>
+        <v>7.8</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>AVERAGE('C5 Cookies.csv'!A87:A91)</f>
+        <v>5.8</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>AVERAGE('C5 Cookies.csv'!A92:A96)</f>
+        <v>6.4</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>AVERAGE('C5 Cookies.csv'!A97:A101)</f>
+        <v>6.2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>AVERAGE('C5 Cookies.csv'!A102:A106)</f>
+        <v>4.8</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>AVERAGE('C5 Cookies.csv'!A107:A111)</f>
+        <v>6.2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>AVERAGE('C5 Cookies.csv'!A112:A116)</f>
+        <v>6.8</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>AVERAGE('C5 Cookies.csv'!A117:A121)</f>
+        <v>5.6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>AVERAGE('C5 Cookies.csv'!A122:A126)</f>
+        <v>6.6</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE('C5 Cookies.csv'!A127:A131)</f>
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>AVERAGE('C5 Cookies.csv'!A132:A136)</f>
+        <v>5.8</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>